--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
@@ -52,22 +52,22 @@
     <t>Block Bootstrapping</t>
   </si>
   <si>
+    <t>LSPM</t>
+  </si>
+  <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>AREPD</t>
   </si>
   <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
-    <t>LSPM</t>
-  </si>
-  <si>
     <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.6322477131688989</v>
+        <v>0.6014579467555505</v>
       </c>
       <c r="C2">
-        <v>0.5309721739526068</v>
+        <v>0.521819543040057</v>
       </c>
       <c r="D2">
-        <v>0.4201164626053704</v>
+        <v>0.3599948989608859</v>
       </c>
       <c r="E2">
-        <v>0.6644807942439174</v>
+        <v>0.5985371062146727</v>
       </c>
       <c r="F2">
-        <v>0.2231914504702689</v>
+        <v>0.2203478105453016</v>
       </c>
       <c r="G2">
-        <v>4.546453813298617</v>
+        <v>5.028064911028258</v>
       </c>
       <c r="H2">
-        <v>0.3691068944507315</v>
+        <v>0.3691752225161807</v>
       </c>
       <c r="I2">
-        <v>0.8950587426354342</v>
+        <v>0.8889131238066538</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.647131607821703</v>
+        <v>0.6115226537109912</v>
       </c>
       <c r="C3">
-        <v>0.5649821752894184</v>
+        <v>0.5331939626903471</v>
       </c>
       <c r="D3">
-        <v>0.4081492855030782</v>
+        <v>0.3640237015449965</v>
       </c>
       <c r="E3">
-        <v>0.6307052237441183</v>
+        <v>0.5952742704394333</v>
       </c>
       <c r="F3">
-        <v>0.214559082418588</v>
+        <v>0.2111325226027165</v>
       </c>
       <c r="G3">
-        <v>4.003325553388817</v>
+        <v>4.281664014166013</v>
       </c>
       <c r="H3">
-        <v>0.391690625831811</v>
+        <v>0.366824329847907</v>
       </c>
       <c r="I3">
-        <v>0.9035332690467884</v>
+        <v>0.8987295083181057</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.665713940848634</v>
+        <v>0.6252526207601822</v>
       </c>
       <c r="C4">
-        <v>0.5675716016191266</v>
+        <v>0.5407243477977999</v>
       </c>
       <c r="D4">
-        <v>0.4344074128516465</v>
+        <v>0.3578439288037188</v>
       </c>
       <c r="E4">
-        <v>0.6525436620688395</v>
+        <v>0.5723189586453107</v>
       </c>
       <c r="F4">
-        <v>0.2182409061432503</v>
+        <v>0.2119511890734919</v>
       </c>
       <c r="G4">
-        <v>4.180581219531062</v>
+        <v>3.112104640618299</v>
       </c>
       <c r="H4">
-        <v>0.392088945721643</v>
+        <v>0.3796179018012518</v>
       </c>
       <c r="I4">
-        <v>0.94151639161921</v>
+        <v>0.91086541039422</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7035312575577468</v>
+        <v>0.6429421623577039</v>
       </c>
       <c r="C5">
-        <v>0.5727881504364865</v>
+        <v>0.5517709496225038</v>
       </c>
       <c r="D5">
-        <v>0.4968464439034748</v>
+        <v>0.3864384885807359</v>
       </c>
       <c r="E5">
-        <v>0.7062180088888131</v>
+        <v>0.6010470477836528</v>
       </c>
       <c r="F5">
-        <v>0.2205463115175477</v>
+        <v>0.2148018575238743</v>
       </c>
       <c r="G5">
-        <v>4.855680362085177</v>
+        <v>3.869480711299304</v>
       </c>
       <c r="H5">
-        <v>0.401909199941432</v>
+        <v>0.3804944143461165</v>
       </c>
       <c r="I5">
-        <v>0.9526959867884254</v>
+        <v>0.9245427404818644</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7098950095139561</v>
+        <v>0.6485030195483187</v>
       </c>
       <c r="C6">
-        <v>0.5968374902731323</v>
+        <v>0.5528645240140804</v>
       </c>
       <c r="D6">
-        <v>0.4287315016541828</v>
+        <v>0.3907830990159131</v>
       </c>
       <c r="E6">
-        <v>0.603936491887332</v>
+        <v>0.6025925666284375</v>
       </c>
       <c r="F6">
-        <v>0.2469477014919544</v>
+        <v>0.2125793597845376</v>
       </c>
       <c r="G6">
-        <v>3.832392074893533</v>
+        <v>3.785766099476132</v>
       </c>
       <c r="H6">
-        <v>0.4136430138537485</v>
+        <v>0.3811220604778404</v>
       </c>
       <c r="I6">
-        <v>1.000312628262914</v>
+        <v>0.9300355965649099</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.7129339594053906</v>
+        <v>0.66173403998303</v>
       </c>
       <c r="C7">
-        <v>0.5630711440142182</v>
+        <v>0.5602790740945995</v>
       </c>
       <c r="D7">
-        <v>0.527642255016384</v>
+        <v>0.3891687619598747</v>
       </c>
       <c r="E7">
-        <v>0.740099763877785</v>
+        <v>0.5881044928108199</v>
       </c>
       <c r="F7">
-        <v>0.214801857523874</v>
+        <v>0.2191907994003119</v>
       </c>
       <c r="G7">
-        <v>4.776793004783678</v>
+        <v>2.9505643016552</v>
       </c>
       <c r="H7">
-        <v>0.3959886380499821</v>
+        <v>0.3971689177153457</v>
       </c>
       <c r="I7">
-        <v>0.9614394683563572</v>
+        <v>0.9489458414780478</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.7211400044162273</v>
+        <v>0.6693422934082164</v>
       </c>
       <c r="C8">
-        <v>0.6053030838645455</v>
+        <v>0.5632067334031239</v>
       </c>
       <c r="D8">
-        <v>0.4160381188081774</v>
+        <v>0.411177946088967</v>
       </c>
       <c r="E8">
-        <v>0.5769172646925418</v>
+        <v>0.6143014570247678</v>
       </c>
       <c r="F8">
-        <v>0.2396611829935812</v>
+        <v>0.2177047745207797</v>
       </c>
       <c r="G8">
-        <v>3.311369203306608</v>
+        <v>3.900488708375974</v>
       </c>
       <c r="H8">
-        <v>0.4103441109910607</v>
+        <v>0.389677463667235</v>
       </c>
       <c r="I8">
-        <v>1.028464467495571</v>
+        <v>0.953048201980733</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.7245748680094141</v>
+        <v>0.6790616759574563</v>
       </c>
       <c r="C9">
-        <v>0.563826318668173</v>
+        <v>0.5822230263356569</v>
       </c>
       <c r="D9">
-        <v>0.5587751859581568</v>
+        <v>0.3875490086696653</v>
       </c>
       <c r="E9">
-        <v>0.7711766038660023</v>
+        <v>0.5707125322942618</v>
       </c>
       <c r="F9">
-        <v>0.2198666854266741</v>
+        <v>0.2254363293938699</v>
       </c>
       <c r="G9">
-        <v>5.662763766198077</v>
+        <v>3.330543799317204</v>
       </c>
       <c r="H9">
-        <v>0.3921038621230193</v>
+        <v>0.4009000574344302</v>
       </c>
       <c r="I9">
-        <v>0.9532804175493956</v>
+        <v>0.9768582218265919</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.9001271265168816</v>
+        <v>0.6958597370951037</v>
       </c>
       <c r="C10">
-        <v>0.7647577918954674</v>
+        <v>0.5868150664595995</v>
       </c>
       <c r="D10">
-        <v>0.4926505892832757</v>
+        <v>0.4045107781412567</v>
       </c>
       <c r="E10">
-        <v>0.5473122348724552</v>
+        <v>0.5813107966698926</v>
       </c>
       <c r="F10">
-        <v>0.3359383415430566</v>
+        <v>0.2245407496568393</v>
       </c>
       <c r="G10">
-        <v>3.754492871046428</v>
+        <v>3.660086938621238</v>
       </c>
       <c r="H10">
-        <v>0.5233517984867972</v>
+        <v>0.4056669375437789</v>
       </c>
       <c r="I10">
-        <v>1.283817066923943</v>
+        <v>1.003461073819309</v>
       </c>
     </row>
   </sheetData>
